--- a/instance_generator/instances/instance_T1030/fragmentation/fragmentation_link3_request400.xlsx
+++ b/instance_generator/instances/instance_T1030/fragmentation/fragmentation_link3_request400.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.936</v>
+        <v>4.744</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.84</v>
+        <v>6.568</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.024</v>
+        <v>4.784</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.92</v>
+        <v>12.352</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.024</v>
+        <v>4.936</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.984</v>
+        <v>14.328</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.744</v>
+        <v>4.912</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.968</v>
+        <v>71.096</v>
       </c>
       <c r="C10" t="n">
         <v>31251</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71.2</v>
+        <v>2.168</v>
       </c>
       <c r="C11" t="n">
         <v>31251</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.088</v>
+        <v>0.6</v>
       </c>
       <c r="C12" t="n">
         <v>31251</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.552</v>
+        <v>0.512</v>
       </c>
       <c r="C13" t="n">
         <v>31251</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.752</v>
+        <v>0.096</v>
       </c>
       <c r="C14" t="n">
         <v>31251</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.232</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>31251</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.36</v>
+        <v>0.592</v>
       </c>
       <c r="C16" t="n">
         <v>31251</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.432</v>
+        <v>0.064</v>
       </c>
       <c r="C17" t="n">
         <v>31251</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.392</v>
+        <v>0.456</v>
       </c>
       <c r="C18" t="n">
         <v>31251</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.36</v>
+        <v>0.472</v>
       </c>
       <c r="C19" t="n">
         <v>31251</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.472</v>
+        <v>0.16</v>
       </c>
       <c r="C20" t="n">
         <v>31251</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.528</v>
+        <v>0.032</v>
       </c>
       <c r="C21" t="n">
         <v>31251</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.488</v>
+        <v>0.008</v>
       </c>
       <c r="C22" t="n">
         <v>31251</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.736</v>
+        <v>0.256</v>
       </c>
       <c r="C23" t="n">
         <v>31251</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.568</v>
+        <v>0.304</v>
       </c>
       <c r="C24" t="n">
         <v>31251</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.728</v>
+        <v>0.456</v>
       </c>
       <c r="C25" t="n">
         <v>31251</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.672</v>
+        <v>0.008</v>
       </c>
       <c r="C26" t="n">
         <v>31251</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.288</v>
+        <v>0.008</v>
       </c>
       <c r="C27" t="n">
         <v>31251</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.792</v>
+        <v>0.08</v>
       </c>
       <c r="C28" t="n">
         <v>31251</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.728</v>
+        <v>5.6</v>
       </c>
       <c r="C29" t="n">
         <v>31251</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.056</v>
+        <v>12.56</v>
       </c>
       <c r="C30" t="n">
         <v>31251</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.64</v>
+        <v>26.176</v>
       </c>
       <c r="C31" t="n">
         <v>31251</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.52</v>
+        <v>18.032</v>
       </c>
       <c r="C32" t="n">
         <v>31251</v>
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.864</v>
+        <v>1.2</v>
       </c>
       <c r="C33" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.504</v>
+        <v>2.84</v>
       </c>
       <c r="C34" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.952</v>
+        <v>2.608</v>
       </c>
       <c r="C35" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.664</v>
+        <v>3.472</v>
       </c>
       <c r="C36" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.024</v>
+        <v>2.68</v>
       </c>
       <c r="C37" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.44</v>
+        <v>1.208</v>
       </c>
       <c r="C38" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.088</v>
+        <v>3.32</v>
       </c>
       <c r="C39" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>2.952</v>
       </c>
       <c r="C40" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.616</v>
+        <v>1.52</v>
       </c>
       <c r="C41" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.664</v>
+        <v>0.824</v>
       </c>
       <c r="C42" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.536</v>
+        <v>1.544</v>
       </c>
       <c r="C43" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.152</v>
+        <v>3.872</v>
       </c>
       <c r="C44" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.52</v>
+        <v>1.256</v>
       </c>
       <c r="C45" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.136</v>
+        <v>1.256</v>
       </c>
       <c r="C46" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.232</v>
+        <v>1.992</v>
       </c>
       <c r="C47" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18.512</v>
+        <v>1.52</v>
       </c>
       <c r="C48" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="49">
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.264</v>
+        <v>2.632</v>
       </c>
       <c r="C49" t="n">
         <v>62501</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.328</v>
+        <v>0.68</v>
       </c>
       <c r="C50" t="n">
         <v>62501</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.184</v>
+        <v>0.544</v>
       </c>
       <c r="C51" t="n">
         <v>62501</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.56</v>
+        <v>0.696</v>
       </c>
       <c r="C52" t="n">
         <v>62501</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.232</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>62501</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.312</v>
+        <v>0.432</v>
       </c>
       <c r="C54" t="n">
         <v>62501</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.376</v>
+        <v>1.456</v>
       </c>
       <c r="C55" t="n">
         <v>62501</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.44</v>
+        <v>2.616</v>
       </c>
       <c r="C56" t="n">
         <v>62501</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.568</v>
+        <v>1.6</v>
       </c>
       <c r="C57" t="n">
         <v>62501</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.544</v>
+        <v>2.432</v>
       </c>
       <c r="C58" t="n">
         <v>62501</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6</v>
+        <v>1.472</v>
       </c>
       <c r="C59" t="n">
         <v>62501</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.96</v>
+        <v>2.056</v>
       </c>
       <c r="C60" t="n">
         <v>62501</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.84</v>
+        <v>2.608</v>
       </c>
       <c r="C61" t="n">
         <v>62501</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.784</v>
+        <v>6.528</v>
       </c>
       <c r="C62" t="n">
         <v>62501</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.312</v>
+        <v>2.504</v>
       </c>
       <c r="C63" t="n">
         <v>62501</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.088</v>
+        <v>61.184</v>
       </c>
       <c r="C64" t="n">
         <v>62501</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.568</v>
+        <v>14.264</v>
       </c>
       <c r="C65" t="n">
         <v>62501</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.232</v>
+        <v>24.696</v>
       </c>
       <c r="C66" t="n">
         <v>62501</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.816</v>
+        <v>3.6</v>
       </c>
       <c r="C67" t="n">
         <v>62501</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.584</v>
+        <v>12.96</v>
       </c>
       <c r="C68" t="n">
         <v>62501</v>
@@ -1187,7 +1187,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.16</v>
+        <v>1.576</v>
       </c>
       <c r="C69" t="n">
         <v>62501</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.696</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C70" t="n">
         <v>62501</v>
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.616</v>
+        <v>3.656</v>
       </c>
       <c r="C71" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.504</v>
+        <v>9.544</v>
       </c>
       <c r="C72" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.176</v>
+        <v>2.552</v>
       </c>
       <c r="C73" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.648</v>
+        <v>3.096</v>
       </c>
       <c r="C74" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.04</v>
+        <v>98.14400000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.6</v>
+        <v>44.048</v>
       </c>
       <c r="C76" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.912</v>
+        <v>9.224</v>
       </c>
       <c r="C77" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.176</v>
+        <v>9.448</v>
       </c>
       <c r="C78" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.584</v>
+        <v>3.736</v>
       </c>
       <c r="C79" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.096</v>
+        <v>257.72</v>
       </c>
       <c r="C80" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>61.248</v>
+        <v>4.744</v>
       </c>
       <c r="C81" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.752</v>
+        <v>6.568</v>
       </c>
       <c r="C82" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.184</v>
+        <v>4.784</v>
       </c>
       <c r="C83" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.232</v>
+        <v>12.352</v>
       </c>
       <c r="C84" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.44</v>
+        <v>4.936</v>
       </c>
       <c r="C85" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.624</v>
+        <v>14.328</v>
       </c>
       <c r="C86" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.792</v>
+        <v>4.912</v>
       </c>
       <c r="C87" t="n">
-        <v>62501</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.28</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.04</v>
+        <v>19.816</v>
       </c>
       <c r="C89" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.224</v>
+        <v>19.256</v>
       </c>
       <c r="C90" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.336</v>
+        <v>18.976</v>
       </c>
       <c r="C91" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99.312</v>
+        <v>19.016</v>
       </c>
       <c r="C92" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44.616</v>
+        <v>19.904</v>
       </c>
       <c r="C93" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.76</v>
+        <v>19.888</v>
       </c>
       <c r="C94" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.992000000000001</v>
+        <v>19.912</v>
       </c>
       <c r="C95" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.376</v>
+        <v>19.704</v>
       </c>
       <c r="C96" t="n">
-        <v>93751</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>258.256</v>
+        <v>19.576</v>
       </c>
       <c r="C97" t="n">
-        <v>93751</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.936</v>
+        <v>19.76</v>
       </c>
       <c r="C98" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.84</v>
+        <v>19.704</v>
       </c>
       <c r="C99" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.024</v>
+        <v>19.448</v>
       </c>
       <c r="C100" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.92</v>
+        <v>19.616</v>
       </c>
       <c r="C101" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.024</v>
+        <v>134.784</v>
       </c>
       <c r="C102" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.984</v>
+        <v>4.976</v>
       </c>
       <c r="C103" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.744</v>
+        <v>19.904</v>
       </c>
       <c r="C104" t="n">
-        <v>125001</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.968</v>
+        <v>434.776</v>
       </c>
       <c r="C105" t="n">
-        <v>156251</v>
+        <v>218751</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>79.93600000000001</v>
+        <v>4.744</v>
       </c>
       <c r="C106" t="n">
-        <v>156251</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.92</v>
+        <v>6.568</v>
       </c>
       <c r="C107" t="n">
-        <v>156251</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.744</v>
+        <v>4.784</v>
       </c>
       <c r="C108" t="n">
-        <v>156251</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.616</v>
+        <v>12.352</v>
       </c>
       <c r="C109" t="n">
-        <v>156251</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19.648</v>
+        <v>4.936</v>
       </c>
       <c r="C110" t="n">
-        <v>156251</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>19.968</v>
+        <v>14.328</v>
       </c>
       <c r="C111" t="n">
-        <v>156251</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.952</v>
+        <v>4.912</v>
       </c>
       <c r="C112" t="n">
-        <v>156251</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.968</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>156251</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19.888</v>
+        <v>19.816</v>
       </c>
       <c r="C114" t="n">
-        <v>156251</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19.856</v>
+        <v>19.256</v>
       </c>
       <c r="C115" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>19.92</v>
+        <v>18.976</v>
       </c>
       <c r="C116" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19.872</v>
+        <v>19.016</v>
       </c>
       <c r="C117" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>19.808</v>
+        <v>19.904</v>
       </c>
       <c r="C118" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>19.856</v>
+        <v>19.888</v>
       </c>
       <c r="C119" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>134.904</v>
+        <v>19.912</v>
       </c>
       <c r="C120" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.024</v>
+        <v>19.704</v>
       </c>
       <c r="C121" t="n">
-        <v>187501</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>19.968</v>
+        <v>19.576</v>
       </c>
       <c r="C122" t="n">
-        <v>187501</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>434.888</v>
+        <v>19.76</v>
       </c>
       <c r="C123" t="n">
-        <v>218751</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.936</v>
+        <v>19.704</v>
       </c>
       <c r="C124" t="n">
-        <v>250001</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.84</v>
+        <v>19.448</v>
       </c>
       <c r="C125" t="n">
-        <v>250001</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.024</v>
+        <v>19.616</v>
       </c>
       <c r="C126" t="n">
-        <v>250001</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.92</v>
+        <v>134.784</v>
       </c>
       <c r="C127" t="n">
-        <v>250001</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14.024</v>
+        <v>4.976</v>
       </c>
       <c r="C128" t="n">
-        <v>250001</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.984</v>
+        <v>19.904</v>
       </c>
       <c r="C129" t="n">
-        <v>250001</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14.744</v>
+        <v>434.776</v>
       </c>
       <c r="C130" t="n">
-        <v>250001</v>
+        <v>343751</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.968</v>
+        <v>4.744</v>
       </c>
       <c r="C131" t="n">
-        <v>281251</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>79.93600000000001</v>
+        <v>6.568</v>
       </c>
       <c r="C132" t="n">
-        <v>281251</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19.92</v>
+        <v>4.784</v>
       </c>
       <c r="C133" t="n">
-        <v>281251</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.744</v>
+        <v>12.352</v>
       </c>
       <c r="C134" t="n">
-        <v>281251</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19.616</v>
+        <v>4.936</v>
       </c>
       <c r="C135" t="n">
-        <v>281251</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19.648</v>
+        <v>14.328</v>
       </c>
       <c r="C136" t="n">
-        <v>281251</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19.968</v>
+        <v>4.912</v>
       </c>
       <c r="C137" t="n">
-        <v>281251</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>19.952</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>281251</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19.968</v>
+        <v>19.816</v>
       </c>
       <c r="C139" t="n">
-        <v>281251</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19.888</v>
+        <v>19.256</v>
       </c>
       <c r="C140" t="n">
-        <v>281251</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19.856</v>
+        <v>18.976</v>
       </c>
       <c r="C141" t="n">
-        <v>312501</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19.92</v>
+        <v>19.016</v>
       </c>
       <c r="C142" t="n">
-        <v>312501</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19.872</v>
+        <v>19.904</v>
       </c>
       <c r="C143" t="n">
-        <v>312501</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19.808</v>
+        <v>19.888</v>
       </c>
       <c r="C144" t="n">
-        <v>312501</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19.856</v>
+        <v>19.912</v>
       </c>
       <c r="C145" t="n">
-        <v>312501</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>134.904</v>
+        <v>19.704</v>
       </c>
       <c r="C146" t="n">
-        <v>312501</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.024</v>
+        <v>19.576</v>
       </c>
       <c r="C147" t="n">
-        <v>312501</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>19.968</v>
+        <v>19.76</v>
       </c>
       <c r="C148" t="n">
-        <v>312501</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>434.888</v>
+        <v>19.704</v>
       </c>
       <c r="C149" t="n">
-        <v>343751</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.936</v>
+        <v>19.448</v>
       </c>
       <c r="C150" t="n">
-        <v>375001</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.84</v>
+        <v>19.616</v>
       </c>
       <c r="C151" t="n">
-        <v>375001</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.024</v>
+        <v>134.784</v>
       </c>
       <c r="C152" t="n">
-        <v>375001</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.92</v>
+        <v>4.976</v>
       </c>
       <c r="C153" t="n">
-        <v>375001</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>14.024</v>
+        <v>19.904</v>
       </c>
       <c r="C154" t="n">
-        <v>375001</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.984</v>
+        <v>434.776</v>
       </c>
       <c r="C155" t="n">
-        <v>375001</v>
+        <v>468751</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>14.744</v>
+        <v>4.744</v>
       </c>
       <c r="C156" t="n">
-        <v>375001</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.968</v>
+        <v>6.568</v>
       </c>
       <c r="C157" t="n">
-        <v>406251</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>79.93600000000001</v>
+        <v>4.784</v>
       </c>
       <c r="C158" t="n">
-        <v>406251</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="159">
@@ -2177,10 +2177,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>19.92</v>
+        <v>12.352</v>
       </c>
       <c r="C159" t="n">
-        <v>406251</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="160">
@@ -2188,10 +2188,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>19.744</v>
+        <v>4.936</v>
       </c>
       <c r="C160" t="n">
-        <v>406251</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="161">
@@ -2199,10 +2199,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>19.616</v>
+        <v>14.328</v>
       </c>
       <c r="C161" t="n">
-        <v>406251</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="162">
@@ -2210,10 +2210,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>19.648</v>
+        <v>4.912</v>
       </c>
       <c r="C162" t="n">
-        <v>406251</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="163">
@@ -2221,10 +2221,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>19.968</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>406251</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="164">
@@ -2232,10 +2232,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>19.952</v>
+        <v>19.816</v>
       </c>
       <c r="C164" t="n">
-        <v>406251</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="165">
@@ -2243,10 +2243,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>19.968</v>
+        <v>19.256</v>
       </c>
       <c r="C165" t="n">
-        <v>406251</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="166">
@@ -2254,10 +2254,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>19.888</v>
+        <v>18.976</v>
       </c>
       <c r="C166" t="n">
-        <v>406251</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="167">
@@ -2265,10 +2265,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>19.856</v>
+        <v>19.016</v>
       </c>
       <c r="C167" t="n">
-        <v>437501</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="168">
@@ -2276,10 +2276,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>19.92</v>
+        <v>19.904</v>
       </c>
       <c r="C168" t="n">
-        <v>437501</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>19.872</v>
+        <v>19.888</v>
       </c>
       <c r="C169" t="n">
-        <v>437501</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>19.808</v>
+        <v>19.912</v>
       </c>
       <c r="C170" t="n">
-        <v>437501</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>19.856</v>
+        <v>19.704</v>
       </c>
       <c r="C171" t="n">
-        <v>437501</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>134.904</v>
+        <v>19.576</v>
       </c>
       <c r="C172" t="n">
-        <v>437501</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.024</v>
+        <v>19.76</v>
       </c>
       <c r="C173" t="n">
-        <v>437501</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>19.968</v>
+        <v>19.704</v>
       </c>
       <c r="C174" t="n">
-        <v>437501</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>434.888</v>
+        <v>19.448</v>
       </c>
       <c r="C175" t="n">
-        <v>468751</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.936</v>
+        <v>19.616</v>
       </c>
       <c r="C176" t="n">
-        <v>500001</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>11.84</v>
+        <v>134.784</v>
       </c>
       <c r="C177" t="n">
-        <v>500001</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.024</v>
+        <v>4.976</v>
       </c>
       <c r="C178" t="n">
-        <v>500001</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.92</v>
+        <v>19.904</v>
       </c>
       <c r="C179" t="n">
-        <v>500001</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="180">
@@ -2408,10 +2408,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>14.024</v>
+        <v>434.776</v>
       </c>
       <c r="C180" t="n">
-        <v>500001</v>
+        <v>593751</v>
       </c>
     </row>
     <row r="181">
@@ -2419,10 +2419,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.984</v>
+        <v>4.744</v>
       </c>
       <c r="C181" t="n">
-        <v>500001</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="182">
@@ -2430,10 +2430,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>14.744</v>
+        <v>6.568</v>
       </c>
       <c r="C182" t="n">
-        <v>500001</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.968</v>
+        <v>4.784</v>
       </c>
       <c r="C183" t="n">
-        <v>531251</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="184">
@@ -2452,10 +2452,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>79.93600000000001</v>
+        <v>12.352</v>
       </c>
       <c r="C184" t="n">
-        <v>531251</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="185">
@@ -2463,10 +2463,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>19.92</v>
+        <v>4.936</v>
       </c>
       <c r="C185" t="n">
-        <v>531251</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="186">
@@ -2474,10 +2474,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>19.744</v>
+        <v>14.328</v>
       </c>
       <c r="C186" t="n">
-        <v>531251</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>19.616</v>
+        <v>4.912</v>
       </c>
       <c r="C187" t="n">
-        <v>531251</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>19.648</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C188" t="n">
-        <v>531251</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>19.968</v>
+        <v>19.816</v>
       </c>
       <c r="C189" t="n">
-        <v>531251</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>19.952</v>
+        <v>19.256</v>
       </c>
       <c r="C190" t="n">
-        <v>531251</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>19.968</v>
+        <v>18.976</v>
       </c>
       <c r="C191" t="n">
-        <v>531251</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>19.888</v>
+        <v>19.016</v>
       </c>
       <c r="C192" t="n">
-        <v>531251</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="193">
@@ -2551,10 +2551,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>19.856</v>
+        <v>19.904</v>
       </c>
       <c r="C193" t="n">
-        <v>562501</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="194">
@@ -2562,10 +2562,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>19.92</v>
+        <v>19.888</v>
       </c>
       <c r="C194" t="n">
-        <v>562501</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="195">
@@ -2573,10 +2573,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>19.872</v>
+        <v>19.912</v>
       </c>
       <c r="C195" t="n">
-        <v>562501</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="196">
@@ -2584,10 +2584,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>19.808</v>
+        <v>19.704</v>
       </c>
       <c r="C196" t="n">
-        <v>562501</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>19.856</v>
+        <v>19.576</v>
       </c>
       <c r="C197" t="n">
-        <v>562501</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="198">
@@ -2606,10 +2606,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>134.904</v>
+        <v>19.76</v>
       </c>
       <c r="C198" t="n">
-        <v>562501</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="199">
@@ -2617,10 +2617,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.024</v>
+        <v>19.704</v>
       </c>
       <c r="C199" t="n">
-        <v>562501</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="200">
@@ -2628,10 +2628,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>19.968</v>
+        <v>19.448</v>
       </c>
       <c r="C200" t="n">
-        <v>562501</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>434.888</v>
+        <v>19.616</v>
       </c>
       <c r="C201" t="n">
-        <v>593751</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.936</v>
+        <v>134.784</v>
       </c>
       <c r="C202" t="n">
-        <v>625001</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>11.84</v>
+        <v>4.976</v>
       </c>
       <c r="C203" t="n">
-        <v>625001</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.024</v>
+        <v>19.904</v>
       </c>
       <c r="C204" t="n">
-        <v>625001</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.92</v>
+        <v>434.776</v>
       </c>
       <c r="C205" t="n">
-        <v>625001</v>
+        <v>718751</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>14.024</v>
+        <v>4.744</v>
       </c>
       <c r="C206" t="n">
-        <v>625001</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="207">
@@ -2705,10 +2705,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.984</v>
+        <v>6.568</v>
       </c>
       <c r="C207" t="n">
-        <v>625001</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="208">
@@ -2716,10 +2716,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>14.744</v>
+        <v>4.784</v>
       </c>
       <c r="C208" t="n">
-        <v>625001</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="209">
@@ -2727,10 +2727,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.968</v>
+        <v>12.352</v>
       </c>
       <c r="C209" t="n">
-        <v>656251</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="210">
@@ -2738,10 +2738,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>79.93600000000001</v>
+        <v>4.936</v>
       </c>
       <c r="C210" t="n">
-        <v>656251</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="211">
@@ -2749,10 +2749,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>19.92</v>
+        <v>14.328</v>
       </c>
       <c r="C211" t="n">
-        <v>656251</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="212">
@@ -2760,10 +2760,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>19.744</v>
+        <v>4.912</v>
       </c>
       <c r="C212" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>19.616</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>19.648</v>
+        <v>19.816</v>
       </c>
       <c r="C214" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="215">
@@ -2793,10 +2793,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>19.968</v>
+        <v>19.256</v>
       </c>
       <c r="C215" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="216">
@@ -2804,10 +2804,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>19.952</v>
+        <v>18.976</v>
       </c>
       <c r="C216" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="217">
@@ -2815,10 +2815,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>19.968</v>
+        <v>19.016</v>
       </c>
       <c r="C217" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="218">
@@ -2826,10 +2826,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>19.888</v>
+        <v>19.904</v>
       </c>
       <c r="C218" t="n">
-        <v>656251</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="219">
@@ -2837,10 +2837,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>19.856</v>
+        <v>19.888</v>
       </c>
       <c r="C219" t="n">
-        <v>687501</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="220">
@@ -2848,10 +2848,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>19.92</v>
+        <v>19.912</v>
       </c>
       <c r="C220" t="n">
-        <v>687501</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>19.872</v>
+        <v>19.704</v>
       </c>
       <c r="C221" t="n">
-        <v>687501</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>19.808</v>
+        <v>19.576</v>
       </c>
       <c r="C222" t="n">
-        <v>687501</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="223">
@@ -2881,10 +2881,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>19.856</v>
+        <v>19.76</v>
       </c>
       <c r="C223" t="n">
-        <v>687501</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="224">
@@ -2892,10 +2892,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>134.904</v>
+        <v>19.704</v>
       </c>
       <c r="C224" t="n">
-        <v>687501</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="225">
@@ -2903,10 +2903,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>5.024</v>
+        <v>19.448</v>
       </c>
       <c r="C225" t="n">
-        <v>687501</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="226">
@@ -2914,10 +2914,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>19.968</v>
+        <v>19.616</v>
       </c>
       <c r="C226" t="n">
-        <v>687501</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>434.888</v>
+        <v>134.784</v>
       </c>
       <c r="C227" t="n">
-        <v>718751</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4.936</v>
+        <v>4.976</v>
       </c>
       <c r="C228" t="n">
-        <v>750001</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>11.84</v>
+        <v>19.904</v>
       </c>
       <c r="C229" t="n">
-        <v>750001</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.024</v>
+        <v>434.776</v>
       </c>
       <c r="C230" t="n">
-        <v>750001</v>
+        <v>843751</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4.92</v>
+        <v>4.744</v>
       </c>
       <c r="C231" t="n">
-        <v>750001</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>14.024</v>
+        <v>6.568</v>
       </c>
       <c r="C232" t="n">
-        <v>750001</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4.984</v>
+        <v>4.784</v>
       </c>
       <c r="C233" t="n">
-        <v>750001</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>14.744</v>
+        <v>12.352</v>
       </c>
       <c r="C234" t="n">
-        <v>750001</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4.968</v>
+        <v>4.936</v>
       </c>
       <c r="C235" t="n">
-        <v>781251</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>79.93600000000001</v>
+        <v>14.328</v>
       </c>
       <c r="C236" t="n">
-        <v>781251</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="237">
@@ -3035,10 +3035,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>19.92</v>
+        <v>4.912</v>
       </c>
       <c r="C237" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="238">
@@ -3046,10 +3046,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>19.744</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C238" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="239">
@@ -3057,10 +3057,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>19.616</v>
+        <v>19.816</v>
       </c>
       <c r="C239" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="240">
@@ -3068,10 +3068,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>19.648</v>
+        <v>19.256</v>
       </c>
       <c r="C240" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>19.968</v>
+        <v>18.976</v>
       </c>
       <c r="C241" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>19.952</v>
+        <v>19.016</v>
       </c>
       <c r="C242" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>19.968</v>
+        <v>19.904</v>
       </c>
       <c r="C243" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="244">
@@ -3115,7 +3115,7 @@
         <v>19.888</v>
       </c>
       <c r="C244" t="n">
-        <v>781251</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>19.856</v>
+        <v>19.912</v>
       </c>
       <c r="C245" t="n">
-        <v>812501</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>19.92</v>
+        <v>19.704</v>
       </c>
       <c r="C246" t="n">
-        <v>812501</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>19.872</v>
+        <v>19.576</v>
       </c>
       <c r="C247" t="n">
-        <v>812501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>19.808</v>
+        <v>19.76</v>
       </c>
       <c r="C248" t="n">
-        <v>812501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>19.856</v>
+        <v>19.704</v>
       </c>
       <c r="C249" t="n">
-        <v>812501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>134.904</v>
+        <v>19.448</v>
       </c>
       <c r="C250" t="n">
-        <v>812501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="251">
@@ -3189,10 +3189,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>5.024</v>
+        <v>19.616</v>
       </c>
       <c r="C251" t="n">
-        <v>812501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="252">
@@ -3200,10 +3200,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>19.968</v>
+        <v>134.784</v>
       </c>
       <c r="C252" t="n">
-        <v>812501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="253">
@@ -3211,10 +3211,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>434.888</v>
+        <v>4.976</v>
       </c>
       <c r="C253" t="n">
-        <v>843751</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="254">
@@ -3222,10 +3222,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4.936</v>
+        <v>19.904</v>
       </c>
       <c r="C254" t="n">
-        <v>875001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="255">
@@ -3233,10 +3233,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11.84</v>
+        <v>434.776</v>
       </c>
       <c r="C255" t="n">
-        <v>875001</v>
+        <v>968751</v>
       </c>
     </row>
     <row r="256">
@@ -3244,10 +3244,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.024</v>
+        <v>4.744</v>
       </c>
       <c r="C256" t="n">
-        <v>875001</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4.92</v>
+        <v>6.568</v>
       </c>
       <c r="C257" t="n">
-        <v>875001</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>14.024</v>
+        <v>4.784</v>
       </c>
       <c r="C258" t="n">
-        <v>875001</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4.984</v>
+        <v>12.352</v>
       </c>
       <c r="C259" t="n">
-        <v>875001</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="260">
@@ -3288,10 +3288,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>14.744</v>
+        <v>4.936</v>
       </c>
       <c r="C260" t="n">
-        <v>875001</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="261">
@@ -3299,10 +3299,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>4.968</v>
+        <v>14.328</v>
       </c>
       <c r="C261" t="n">
-        <v>906251</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="262">
@@ -3310,10 +3310,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>79.93600000000001</v>
+        <v>4.912</v>
       </c>
       <c r="C262" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="263">
@@ -3321,10 +3321,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>19.92</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C263" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="264">
@@ -3332,10 +3332,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>19.744</v>
+        <v>19.816</v>
       </c>
       <c r="C264" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="265">
@@ -3343,10 +3343,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>19.616</v>
+        <v>19.256</v>
       </c>
       <c r="C265" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="266">
@@ -3354,10 +3354,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>19.648</v>
+        <v>18.976</v>
       </c>
       <c r="C266" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="267">
@@ -3365,10 +3365,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>19.968</v>
+        <v>19.016</v>
       </c>
       <c r="C267" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="268">
@@ -3376,10 +3376,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>19.952</v>
+        <v>19.904</v>
       </c>
       <c r="C268" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="269">
@@ -3387,10 +3387,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>19.968</v>
+        <v>19.888</v>
       </c>
       <c r="C269" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="270">
@@ -3398,10 +3398,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>19.888</v>
+        <v>19.912</v>
       </c>
       <c r="C270" t="n">
-        <v>906251</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>19.856</v>
+        <v>19.704</v>
       </c>
       <c r="C271" t="n">
-        <v>937501</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19.92</v>
+        <v>19.576</v>
       </c>
       <c r="C272" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>19.872</v>
+        <v>19.76</v>
       </c>
       <c r="C273" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>19.808</v>
+        <v>19.704</v>
       </c>
       <c r="C274" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>19.856</v>
+        <v>19.448</v>
       </c>
       <c r="C275" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>134.904</v>
+        <v>19.616</v>
       </c>
       <c r="C276" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5.024</v>
+        <v>134.784</v>
       </c>
       <c r="C277" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>19.968</v>
+        <v>4.976</v>
       </c>
       <c r="C278" t="n">
-        <v>937501</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>434.888</v>
+        <v>19.904</v>
       </c>
       <c r="C279" t="n">
-        <v>968751</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4.936</v>
+        <v>434.776</v>
       </c>
       <c r="C280" t="n">
-        <v>1000001</v>
+        <v>1093751</v>
       </c>
     </row>
     <row r="281">
@@ -3519,10 +3519,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>11.84</v>
+        <v>4.744</v>
       </c>
       <c r="C281" t="n">
-        <v>1000001</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="282">
@@ -3530,10 +3530,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.024</v>
+        <v>6.568</v>
       </c>
       <c r="C282" t="n">
-        <v>1000001</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="283">
@@ -3541,10 +3541,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4.92</v>
+        <v>4.784</v>
       </c>
       <c r="C283" t="n">
-        <v>1000001</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="284">
@@ -3552,10 +3552,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>14.024</v>
+        <v>12.352</v>
       </c>
       <c r="C284" t="n">
-        <v>1000001</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4.984</v>
+        <v>4.936</v>
       </c>
       <c r="C285" t="n">
-        <v>1000001</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>14.744</v>
+        <v>14.328</v>
       </c>
       <c r="C286" t="n">
-        <v>1000001</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4.968</v>
+        <v>4.912</v>
       </c>
       <c r="C287" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>79.93600000000001</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="C288" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>19.92</v>
+        <v>19.816</v>
       </c>
       <c r="C289" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="290">
@@ -3618,10 +3618,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>19.744</v>
+        <v>19.256</v>
       </c>
       <c r="C290" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="291">
@@ -3629,10 +3629,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>19.616</v>
+        <v>18.976</v>
       </c>
       <c r="C291" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="292">
@@ -3640,10 +3640,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>19.648</v>
+        <v>19.016</v>
       </c>
       <c r="C292" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="293">
@@ -3651,10 +3651,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>19.968</v>
+        <v>19.904</v>
       </c>
       <c r="C293" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="294">
@@ -3662,10 +3662,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>19.952</v>
+        <v>19.888</v>
       </c>
       <c r="C294" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="295">
@@ -3673,10 +3673,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>19.968</v>
+        <v>19.912</v>
       </c>
       <c r="C295" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="296">
@@ -3684,10 +3684,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>19.888</v>
+        <v>19.704</v>
       </c>
       <c r="C296" t="n">
-        <v>1031251</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="297">
@@ -3695,10 +3695,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>19.856</v>
+        <v>19.576</v>
       </c>
       <c r="C297" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="298">
@@ -3706,10 +3706,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>19.92</v>
+        <v>19.76</v>
       </c>
       <c r="C298" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="299">
@@ -3717,10 +3717,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>19.872</v>
+        <v>19.704</v>
       </c>
       <c r="C299" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="300">
@@ -3728,10 +3728,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>19.808</v>
+        <v>19.448</v>
       </c>
       <c r="C300" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="301">
@@ -3739,10 +3739,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>19.856</v>
+        <v>19.616</v>
       </c>
       <c r="C301" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="302">
@@ -3750,10 +3750,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>134.904</v>
+        <v>134.784</v>
       </c>
       <c r="C302" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="303">
@@ -3761,10 +3761,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>5.024</v>
+        <v>4.976</v>
       </c>
       <c r="C303" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="304">
@@ -3772,10 +3772,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>19.968</v>
+        <v>19.904</v>
       </c>
       <c r="C304" t="n">
-        <v>1062501</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="305">
@@ -3783,295 +3783,9 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>434.888</v>
+        <v>231.632</v>
       </c>
       <c r="C305" t="n">
-        <v>1093751</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>4.936</v>
-      </c>
-      <c r="C306" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C307" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>14.024</v>
-      </c>
-      <c r="C310" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>4.984</v>
-      </c>
-      <c r="C311" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>14.744</v>
-      </c>
-      <c r="C312" t="n">
-        <v>1125001</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>4.968</v>
-      </c>
-      <c r="C313" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>79.93600000000001</v>
-      </c>
-      <c r="C314" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C315" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>19.744</v>
-      </c>
-      <c r="C316" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>19.616</v>
-      </c>
-      <c r="C317" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>19.648</v>
-      </c>
-      <c r="C318" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>19.968</v>
-      </c>
-      <c r="C319" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>19.952</v>
-      </c>
-      <c r="C320" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>19.968</v>
-      </c>
-      <c r="C321" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>19.888</v>
-      </c>
-      <c r="C322" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>19.856</v>
-      </c>
-      <c r="C323" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C324" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>19.872</v>
-      </c>
-      <c r="C325" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>19.808</v>
-      </c>
-      <c r="C326" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>19.856</v>
-      </c>
-      <c r="C327" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>134.904</v>
-      </c>
-      <c r="C328" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>5.024</v>
-      </c>
-      <c r="C329" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>19.968</v>
-      </c>
-      <c r="C330" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>231.744</v>
-      </c>
-      <c r="C331" t="n">
         <v>1218751</v>
       </c>
     </row>
